--- a/backend/files/arquivo_membros.xlsx
+++ b/backend/files/arquivo_membros.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Elias</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Amanda</t>
   </si>
   <si>
-    <t>Flavio</t>
+    <t>Flávio</t>
   </si>
   <si>
     <t>Niege</t>
@@ -60,7 +60,7 @@
     <t>Juliana</t>
   </si>
   <si>
-    <t>Joao</t>
+    <t>João</t>
   </si>
   <si>
     <t>Arthur</t>
@@ -78,7 +78,7 @@
     <t>Teresa</t>
   </si>
   <si>
-    <t>Carlinho</t>
+    <t>Carlinhos</t>
   </si>
   <si>
     <t>Hernani</t>
@@ -99,10 +99,7 @@
     <t>Marcia</t>
   </si>
   <si>
-    <t>Vitoria</t>
-  </si>
-  <si>
-    <t>Rafael</t>
+    <t>Vitória</t>
   </si>
   <si>
     <t>Silvia</t>
@@ -120,130 +117,124 @@
     <t>Gean</t>
   </si>
   <si>
-    <t>namorada</t>
+    <t>Valéria</t>
   </si>
   <si>
     <t>HIlda</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos Eduardo</t>
-  </si>
-  <si>
-    <t>Josi</t>
-  </si>
-  <si>
-    <t>Ze</t>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Josiane</t>
+  </si>
+  <si>
+    <t>José</t>
   </si>
   <si>
     <t>Renata</t>
   </si>
   <si>
-    <t>weligton</t>
-  </si>
-  <si>
-    <t>esposa</t>
+    <t>wellington</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Reginaldo</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Zezinho</t>
+  </si>
+  <si>
+    <t>Devanira</t>
+  </si>
+  <si>
+    <t>Tiaozim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina </t>
+  </si>
+  <si>
+    <t>junim</t>
+  </si>
+  <si>
+    <t>felipe</t>
+  </si>
+  <si>
+    <t>tavim</t>
+  </si>
+  <si>
+    <t>leo</t>
+  </si>
+  <si>
+    <t>gabi</t>
+  </si>
+  <si>
+    <t>maisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ze lair</t>
+  </si>
+  <si>
+    <t>carlinho</t>
+  </si>
+  <si>
+    <t>marinilva</t>
+  </si>
+  <si>
+    <t>amanda</t>
+  </si>
+  <si>
+    <t>miguel</t>
+  </si>
+  <si>
+    <t>anderson</t>
+  </si>
+  <si>
+    <t>luciana</t>
+  </si>
+  <si>
+    <t>agnaldo</t>
+  </si>
+  <si>
+    <t>cleis</t>
+  </si>
+  <si>
+    <t>ariele</t>
+  </si>
+  <si>
+    <t>roberto</t>
+  </si>
+  <si>
+    <t>estevão</t>
+  </si>
+  <si>
+    <t>rodrigo</t>
+  </si>
+  <si>
+    <t>bruno</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>thais</t>
   </si>
   <si>
     <t>filho</t>
-  </si>
-  <si>
-    <t>Regi</t>
-  </si>
-  <si>
-    <t>ajuntada</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Aline</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Zezim</t>
-  </si>
-  <si>
-    <t>devanira</t>
-  </si>
-  <si>
-    <t>tiaozim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina </t>
-  </si>
-  <si>
-    <t>junim</t>
-  </si>
-  <si>
-    <t>felipe</t>
-  </si>
-  <si>
-    <t>tavim</t>
-  </si>
-  <si>
-    <t>leo</t>
-  </si>
-  <si>
-    <t>gabi</t>
-  </si>
-  <si>
-    <t>maisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ze lair</t>
-  </si>
-  <si>
-    <t>carlinho</t>
-  </si>
-  <si>
-    <t>marinilva</t>
-  </si>
-  <si>
-    <t>amanda</t>
-  </si>
-  <si>
-    <t>miguel</t>
-  </si>
-  <si>
-    <t>anderson</t>
-  </si>
-  <si>
-    <t>luciana</t>
-  </si>
-  <si>
-    <t>agnaldo</t>
-  </si>
-  <si>
-    <t>cleis</t>
-  </si>
-  <si>
-    <t>ariele</t>
-  </si>
-  <si>
-    <t>roberto</t>
-  </si>
-  <si>
-    <t>estevao</t>
-  </si>
-  <si>
-    <t>inaue</t>
-  </si>
-  <si>
-    <t>rodrigo</t>
-  </si>
-  <si>
-    <t>brunao</t>
-  </si>
-  <si>
-    <t>gabriel</t>
-  </si>
-  <si>
-    <t>thais</t>
   </si>
   <si>
     <t>Kevin</t>
@@ -259,70 +250,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -330,127 +274,12 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="none"/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,484 +792,323 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.8515625"/>
+    <col customWidth="1" min="3" max="3" width="11.00390625"/>
+    <col customWidth="1" min="6" max="6" width="11.28125"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
+    </row>
+    <row r="13" ht="14.25"/>
     <row r="14" ht="14.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11" t="s">
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="11" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" ht="25.5">
-      <c r="A17" s="11" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="11" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11" t="s">
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="11" t="s">
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="11" t="s">
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="11" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="15" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="15" t="s">
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="15" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="15" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="15" t="s">
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="15" t="s">
+      <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="15" t="s">
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="15" t="s">
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="15" t="s">
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="15" t="s">
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="15" t="s">
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="15" t="s">
+    </row>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25">
+      <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="15" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="19" t="s">
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="19" t="s">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="19" t="s">
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="19" t="s">
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="19" t="s">
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="19" t="s">
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
     </row>
     <row r="34" ht="14.25"/>
     <row r="35" ht="14.25"/>
     <row r="36" ht="14.25"/>
     <row r="37" ht="14.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:G13"/>
-  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
